--- a/medicine/Psychotrope/Montepulciano_d'Abruzzo_rosso_riserva/Montepulciano_d'Abruzzo_rosso_riserva.xlsx
+++ b/medicine/Psychotrope/Montepulciano_d'Abruzzo_rosso_riserva/Montepulciano_d'Abruzzo_rosso_riserva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_rosso_riserva</t>
+          <t>Montepulciano_d'Abruzzo_rosso_riserva</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Montepulciano d'Abruzzo rosso riserva (Montepulciano d'Abruzzo rosso riserva D.O.C) est un vin rouge italien, produit dans les Abruzzes selon une dénomination d'origine contrôlée (DOC). 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_rosso_riserva</t>
+          <t>Montepulciano_d'Abruzzo_rosso_riserva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Zone de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Provinces de Chieti, L'Aquila, Pescara et Teramo.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_rosso_riserva</t>
+          <t>Montepulciano_d'Abruzzo_rosso_riserva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Couleur : rouge rubis intense, avec pointes violacées ; tendance à l'orange lors du vieillissement
 Arôme : vineux, doux, agréable ;
-Saveur : sec, équilibré et tanné[1].
+Saveur : sec, équilibré et tanné.
 Le Montepulciano d'Abruzzo rosso riserva accompagne les viandes rouges et le gibier.
 </t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_rosso_riserva</t>
+          <t>Montepulciano_d'Abruzzo_rosso_riserva</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Saison, volume en  hl
 Pas de données</t>
